--- a/MatrizVester.xlsx
+++ b/MatrizVester.xlsx
@@ -5,25 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Pictures\ProyectoTDO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Pictures\ProyectoTDO\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E65C2D-04AA-46C8-891E-0569FBF8511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFA34E-3DD5-4D12-B316-0C154E498372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz y gráfico" sheetId="1" r:id="rId1"/>
     <sheet name="Parámetros" sheetId="2" r:id="rId2"/>
-    <sheet name="ARBOL DE PROBLEMAS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Dependencia" localSheetId="2">'[1]Matriz y gráfico'!$C$17:$J$17</definedName>
     <definedName name="Dependencia">'Matriz y gráfico'!$C$23:$M$23</definedName>
-    <definedName name="Influencia" localSheetId="2">'[1]Matriz y gráfico'!$K$9:$K$16</definedName>
     <definedName name="Influencia">'Matriz y gráfico'!$Q$9:$Q$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -93,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Plantilla Matriz de Vester</t>
   </si>
@@ -205,10 +199,6 @@
   </si>
   <si>
     <t>Para el 2025, Amar Es Más será un núcleo articulador de procesos sociales, líder en educación popular en el Quindío, habrá desarrollado proyectos orientados a la protección del territorio, con estrategias comunicativas consolidadas y alta capacidad de gestión.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARBÓL DE PROBLEMAS AMAR ES MAS
-</t>
   </si>
   <si>
     <t>Matriz Vester Plantilla- AMAR ES MAS</t>
@@ -550,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -688,9 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3785,1249 +3772,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2377440" y="2880360"/>
-          <a:ext cx="1592580" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4236720" y="2872740"/>
-          <a:ext cx="1592580" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6080760" y="2872740"/>
-          <a:ext cx="1592580" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7985760" y="2811780"/>
-          <a:ext cx="1592580" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="3733800"/>
-          <a:ext cx="2697480" cy="708660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectángulo 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2407920" y="5036820"/>
-          <a:ext cx="1623060" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4335780" y="5021580"/>
-          <a:ext cx="1623060" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6172200" y="5021580"/>
-          <a:ext cx="1623060" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectángulo 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8016240" y="4975860"/>
-          <a:ext cx="1623060" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3215640" y="4739640"/>
-          <a:ext cx="3810" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Conector recto 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5166360" y="4716780"/>
-          <a:ext cx="3810" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector recto 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6979920" y="4716780"/>
-          <a:ext cx="3810" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8724900" y="4693920"/>
-          <a:ext cx="3810" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3200400" y="4709160"/>
-          <a:ext cx="5524500" cy="22860"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5859780" y="4434840"/>
-          <a:ext cx="3810" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector angular 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7231380" y="3421380"/>
-          <a:ext cx="1550670" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>537210</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Conector angular 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6844665" y="3514725"/>
-          <a:ext cx="213360" cy="148590"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector angular 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5154930" y="3554730"/>
-          <a:ext cx="243840" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector angular 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2903220" y="3550920"/>
-          <a:ext cx="1630680" cy="537210"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9593580" cy="1333758"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="68580" y="0"/>
-          <a:ext cx="9593580" cy="1333758"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6988146" cy="5197290"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10172700" y="0"/>
-          <a:ext cx="6988146" cy="5197290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Matriz y gráfico"/>
-      <sheetName val="Parámetros"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="F17">
-            <v>0</v>
-          </cell>
-          <cell r="G17">
-            <v>0</v>
-          </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>0</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5351,7 +4095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:Q23"/>
     </sheetView>
   </sheetViews>
@@ -5387,7 +4131,7 @@
     </row>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -5543,16 +4287,16 @@
         <v>20</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>11</v>
@@ -5563,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="15">
         <v>0</v>
@@ -5617,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14">
         <v>3</v>
@@ -5671,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14">
         <v>3</v>
@@ -5725,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14">
         <v>3</v>
@@ -5779,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -5833,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="14">
         <v>0</v>
@@ -5887,7 +4631,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
@@ -5941,7 +4685,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="14">
         <v>0</v>
@@ -5995,7 +4739,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="14">
         <v>2</v>
@@ -6049,7 +4793,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
@@ -6100,10 +4844,10 @@
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="14">
         <v>1</v>
@@ -6154,10 +4898,10 @@
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
@@ -6208,10 +4952,10 @@
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -6262,10 +5006,10 @@
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -6967,7 +5711,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,39 +5785,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B12:L12"/>
-  <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="12" spans="2:12" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:L12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/MatrizVester.xlsx
+++ b/MatrizVester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Pictures\ProyectoTDO\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFA34E-3DD5-4D12-B316-0C154E498372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A243F7E9-1351-42FF-B947-CFF537325CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4095,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MatrizVester.xlsx
+++ b/MatrizVester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Pictures\ProyectoTDO\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A243F7E9-1351-42FF-B947-CFF537325CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3BC627-DA81-4D85-9C65-6442FBC4E615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Parámetros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Dependencia">'Matriz y gráfico'!$C$23:$M$23</definedName>
-    <definedName name="Influencia">'Matriz y gráfico'!$Q$9:$Q$22</definedName>
+    <definedName name="Dependencia">'Matriz y gráfico'!$C$16:$M$16</definedName>
+    <definedName name="Influencia">'Matriz y gráfico'!$Q$2:$Q$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>Betancourt Quintero</author>
   </authors>
   <commentList>
-    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,13 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
-  <si>
-    <t>Plantilla Matriz de Vester</t>
-  </si>
-  <si>
-    <t>Situación problemática</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Código</t>
   </si>
@@ -150,58 +144,6 @@
   </si>
   <si>
     <t>P10</t>
-  </si>
-  <si>
-    <t>Instrucciones</t>
-  </si>
-  <si>
-    <t>¿Quieres más? Visita Ingenio Empresa, conocimiento para la gestión del negocio</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Las celdas de color blanco son las que se pueden diligenciar. Las de color gris son de cálculo automático. Para entender cómo funciona, visita </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ingenio Empresa:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://ingenioempresa.com/matriz-de-vester/</t>
-  </si>
-  <si>
-    <t>Inestabilidad económica y laboral dentro de la organización.</t>
-  </si>
-  <si>
-    <t>Objeto social</t>
-  </si>
-  <si>
-    <t>Amar es Más desarrolla actividades en procura del bienestar común, la protección del territorio, la conservación de la diversidad biológica y cultural, la difusión de los saberes tradicionales y la superación de todas las formas de violencia. </t>
-  </si>
-  <si>
-    <t>Misión</t>
-  </si>
-  <si>
-    <t>Amar Es Más es una organización sin ánimo de lucro que propende por la transformación social y ambiental para la superación de todas las formas de violencia en el departamento del Quindío y su región circundante, mediante la promoción del diálogo intercultural, el cuidado y el autogobierno.</t>
-  </si>
-  <si>
-    <t>Desarrollamos proyectos jurídicos, educativos y comunicativos para asumir las problemáticas de manera crítica y proactiva, a través de la articulación con comunidades campesinas, indígenas y urbano- populares.</t>
-  </si>
-  <si>
-    <t>Visión</t>
-  </si>
-  <si>
-    <t>Para el 2025, Amar Es Más será un núcleo articulador de procesos sociales, líder en educación popular en el Quindío, habrá desarrollado proyectos orientados a la protección del territorio, con estrategias comunicativas consolidadas y alta capacidad de gestión.</t>
-  </si>
-  <si>
-    <t>Matriz Vester Plantilla- AMAR ES MAS</t>
   </si>
   <si>
     <t>P11</t>
@@ -262,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,50 +247,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="3"/>
-      <name val="Gisha"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="3"/>
       <name val="Gisha"/>
@@ -359,25 +257,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -424,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -451,15 +330,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -517,15 +387,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -536,11 +397,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,136 +412,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -733,7 +508,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$9</c:f>
+              <c:f>'Matriz y gráfico'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -823,7 +598,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$9</c:f>
+              <c:f>'Matriz y gráfico'!$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -835,7 +610,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$C$23</c:f>
+              <c:f>'Matriz y gráfico'!$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -857,7 +632,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$10</c:f>
+              <c:f>'Matriz y gráfico'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -962,7 +737,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$10</c:f>
+              <c:f>'Matriz y gráfico'!$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -974,7 +749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$D$23</c:f>
+              <c:f>'Matriz y gráfico'!$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -996,7 +771,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$11</c:f>
+              <c:f>'Matriz y gráfico'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1086,7 +861,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$11</c:f>
+              <c:f>'Matriz y gráfico'!$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1098,7 +873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$E$23</c:f>
+              <c:f>'Matriz y gráfico'!$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1120,7 +895,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$12</c:f>
+              <c:f>'Matriz y gráfico'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1210,7 +985,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$12</c:f>
+              <c:f>'Matriz y gráfico'!$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1222,7 +997,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$F$23</c:f>
+              <c:f>'Matriz y gráfico'!$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1244,7 +1019,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$13</c:f>
+              <c:f>'Matriz y gráfico'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1349,7 +1124,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$13</c:f>
+              <c:f>'Matriz y gráfico'!$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1361,7 +1136,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$G$23</c:f>
+              <c:f>'Matriz y gráfico'!$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1383,7 +1158,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$14</c:f>
+              <c:f>'Matriz y gráfico'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1473,7 +1248,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$14</c:f>
+              <c:f>'Matriz y gráfico'!$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1485,7 +1260,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$H$23</c:f>
+              <c:f>'Matriz y gráfico'!$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1507,7 +1282,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$15</c:f>
+              <c:f>'Matriz y gráfico'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1601,7 +1376,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$15</c:f>
+              <c:f>'Matriz y gráfico'!$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1613,7 +1388,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$I$23</c:f>
+              <c:f>'Matriz y gráfico'!$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1635,7 +1410,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$16</c:f>
+              <c:f>'Matriz y gráfico'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1729,7 +1504,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$16</c:f>
+              <c:f>'Matriz y gráfico'!$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1741,7 +1516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$J$23</c:f>
+              <c:f>'Matriz y gráfico'!$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1763,7 +1538,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$17</c:f>
+              <c:f>'Matriz y gráfico'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1857,7 +1632,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$17</c:f>
+              <c:f>'Matriz y gráfico'!$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1869,7 +1644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$M$23</c:f>
+              <c:f>'Matriz y gráfico'!$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1891,7 +1666,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Matriz y gráfico'!$A$22</c:f>
+              <c:f>'Matriz y gráfico'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1985,7 +1760,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Matriz y gráfico'!$Q$22</c:f>
+              <c:f>'Matriz y gráfico'!$Q$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3058,13 +2833,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>8657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>822614</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4093,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG76"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,1601 +3883,989 @@
     <col min="18" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2:Q15" si="0">SUM(C2:P2)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>2</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>2</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" ref="Q9:Q22" si="0">SUM(C9:P9)</f>
-        <v>6</v>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="M10" s="10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>2</v>
-      </c>
-      <c r="O10" s="14">
-        <v>2</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="14">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="14">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
         <v>3</v>
       </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>2</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
         <v>3</v>
       </c>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
-      <c r="N11" s="14">
-        <v>1</v>
-      </c>
-      <c r="O11" s="14">
-        <v>2</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
+      <c r="P11" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="14">
+      <c r="K12" s="8">
+        <v>3</v>
+      </c>
+      <c r="L12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="P12" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="14">
-        <v>2</v>
-      </c>
-      <c r="I12" s="14">
-        <v>2</v>
-      </c>
-      <c r="J12" s="14">
-        <v>2</v>
-      </c>
-      <c r="K12" s="14">
-        <v>3</v>
-      </c>
-      <c r="L12" s="14">
-        <v>3</v>
-      </c>
-      <c r="M12" s="14">
-        <v>2</v>
-      </c>
-      <c r="N12" s="14">
-        <v>3</v>
-      </c>
-      <c r="O12" s="14">
-        <v>3</v>
-      </c>
-      <c r="P12" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="14">
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
         <v>3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="L13" s="8">
         <v>3</v>
       </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>3</v>
-      </c>
-      <c r="I13" s="14">
-        <v>3</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="M13" s="10">
         <v>1</v>
       </c>
-      <c r="K13" s="14">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14">
-        <v>3</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
         <v>2</v>
       </c>
-      <c r="O13" s="14">
-        <v>1</v>
-      </c>
-      <c r="P13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="15">
+      <c r="P13" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <v>3</v>
-      </c>
-      <c r="L14" s="14">
-        <v>3</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
         <v>2</v>
       </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="15">
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="L15" s="8">
+        <v>3</v>
+      </c>
+      <c r="M15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>3</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>2</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="15">
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9">
+        <f t="shared" ref="C16:P16" si="1">SUM(C2:C15)</f>
+        <v>21</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14">
-        <v>3</v>
-      </c>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14">
-        <v>3</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14">
-        <v>3</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>3</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14">
-        <v>2</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>2</v>
-      </c>
-      <c r="M17" s="22">
-        <v>2</v>
-      </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="14">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>3</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <v>3</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>1</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
-        <v>3</v>
-      </c>
-      <c r="P18" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>2</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>2</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <v>3</v>
-      </c>
-      <c r="K19" s="14">
-        <v>3</v>
-      </c>
-      <c r="L19" s="14">
-        <v>2</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="22">
-        <v>1</v>
-      </c>
-      <c r="P19" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="19"/>
     </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>2</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="14">
-        <v>1</v>
-      </c>
-      <c r="K20" s="14">
-        <v>3</v>
-      </c>
-      <c r="L20" s="14">
-        <v>3</v>
-      </c>
-      <c r="M20" s="22">
-        <v>1</v>
-      </c>
-      <c r="N20" s="15">
-        <v>0</v>
-      </c>
-      <c r="O20" s="22">
-        <v>2</v>
-      </c>
-      <c r="P20" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="19"/>
     </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>3</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
-        <v>2</v>
-      </c>
-      <c r="K21" s="14">
-        <v>1</v>
-      </c>
-      <c r="L21" s="14">
-        <v>2</v>
-      </c>
-      <c r="M21" s="22">
-        <v>1</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0</v>
-      </c>
-      <c r="P21" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+    <row r="22" spans="1:17" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14">
-        <v>3</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14">
-        <v>1</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>2</v>
-      </c>
-      <c r="L22" s="14">
-        <v>3</v>
-      </c>
-      <c r="M22" s="14">
-        <v>1</v>
-      </c>
-      <c r="N22" s="14">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+    <row r="23" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="19"/>
     </row>
-    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="15">
-        <f t="shared" ref="C23:P23" si="1">SUM(C9:C22)</f>
-        <v>21</v>
-      </c>
-      <c r="D23" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F23" s="15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="G23" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O23" s="15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="P23" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q23" s="15"/>
+    <row r="24" spans="1:17" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="19"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+    <row r="25" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="19"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-    </row>
-    <row r="26" spans="1:17" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+    <row r="26" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="19"/>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+    <row r="33" spans="17:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+    <row r="34" spans="17:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="19"/>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-    </row>
-    <row r="60" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG60">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG61">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="62" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="63" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG63">
-        <f>SUM(AG60:AG62)</f>
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG65">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG66">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG67">
-        <f>SUM(AG65:AG66)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="24"/>
-    </row>
+    <row r="35" spans="17:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="17:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="17:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="17:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="17:17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="17:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A74:Q75"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N1:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A5:Q6"/>
-    <mergeCell ref="A46:Q46"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q30"/>
-    <mergeCell ref="A32:Q32"/>
+  <mergeCells count="2">
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C9:P22">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="C2:P15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A71" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A76" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="58" orientation="landscape" r:id="rId3"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5718,18 +4881,18 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
       <c r="C2" s="4">
         <v>0</v>
       </c>
@@ -5741,8 +4904,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4">
         <f>MAX(Influencia)</f>
         <v>31</v>
@@ -5753,10 +4916,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="47"/>
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="4">
         <f>MAX(Influencia)/2</f>
         <v>15.5</v>
@@ -5766,8 +4929,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4">
         <f>MAX(Influencia)/2</f>
         <v>15.5</v>
